--- a/OnlineShopCore/wwwroot/templates/BillTemplate.xlsx
+++ b/OnlineShopCore/wwwroot/templates/BillTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnlineShop with ASP. NET Core\OnlineShopCore\OnlineShopCore\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rel\source\repos\OnlineShopCore\OnlineShopCore\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62871A8-E955-4FB4-BF77-0C8682454B49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4757293-04A6-4C0D-8A1D-9DCA529A8E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetail" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,52 +32,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TT</t>
   </si>
   <si>
-    <t>Ngày ......... tháng ......... năm 20.........</t>
+    <t>TỔNG TIỀN</t>
   </si>
   <si>
-    <t>SĐT: 0966 026 626</t>
+    <t>HÓA ĐƠN MUA HÀNG</t>
   </si>
   <si>
-    <t>Sales Order</t>
+    <t>Địa chỉ: 155 Sư Vạn Hạnh(nd), P13, Q10, TP.HCM
+ĐT: 0904285240</t>
   </si>
   <si>
-    <t>Customer name: ...........................................................................................................................................</t>
+    <t>Họ tên khách hàng:</t>
   </si>
   <si>
-    <t>Address: ........................................................................................................................................................</t>
+    <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>Phone:</t>
+    <t>Ngày… tháng… năm 20…</t>
   </si>
   <si>
-    <t>CUSTOMER</t>
+    <t>Thành tiền</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Số lượng</t>
   </si>
   <si>
-    <t>SALES STAFF</t>
+    <t>Tên sản phẩm</t>
   </si>
   <si>
-    <t>PRODUCT NAME</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>Address: 155 Sư Vạn Hạnh(nd), P13, Q10, TP.HCM
-ĐT: 0904285240</t>
+    <t>Đơn giá</t>
   </si>
 </sst>
 </file>
@@ -86,23 +76,8 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -110,14 +85,29 @@
       <b/>
       <sz val="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -130,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,61 +129,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <left/>
+      <right/>
+      <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -203,11 +153,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,88 +167,46 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,23 +225,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1619251</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>828676</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1327785</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Hình ảnh 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52FA2D47-B32B-462E-AD8B-B405FFBB4D8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -342,7 +250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -355,8 +263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="19050"/>
-          <a:ext cx="809626" cy="809626"/>
+          <a:off x="60960" y="1783080"/>
+          <a:ext cx="1266825" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,322 +539,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>6</v>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>1</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5">
-        <f>C9*D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <f t="shared" ref="E10:E23" si="0">C10*D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="E9"/>
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>15</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="3">
-        <f>SUM(C9:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <f>SUM(E9:E23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A2:F3"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
